--- a/words.xlsx
+++ b/words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MQM\Telegrambot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MQM\TeleBot_git\TelegramBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>fuck</t>
   </si>
@@ -75,6 +75,42 @@
   </si>
   <si>
     <t>corwords</t>
+  </si>
+  <si>
+    <t>FUCK</t>
+  </si>
+  <si>
+    <t>ASSHOLE</t>
+  </si>
+  <si>
+    <t>BITCH</t>
+  </si>
+  <si>
+    <t>Bitch</t>
+  </si>
+  <si>
+    <t>Fuck</t>
+  </si>
+  <si>
+    <t>Bastard</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>HELLO</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Alo</t>
+  </si>
+  <si>
+    <t>ALO</t>
   </si>
 </sst>
 </file>
@@ -392,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +511,54 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
